--- a/CreateML Models/Installation Cost.xlsx
+++ b/CreateML Models/Installation Cost.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skhiearth/Desktop/SolarX/CreateML Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3FBD81-D71A-FA46-8B1A-C298431BFCE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBF374E6-7A97-2A42-AE54-52B90899DD8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16300" yWindow="460" windowWidth="12500" windowHeight="16260" xr2:uid="{5BC59F8A-A70D-FB4E-8581-B9F15738DFB6}"/>
+    <workbookView xWindow="7680" yWindow="500" windowWidth="20500" windowHeight="16380" xr2:uid="{5BC59F8A-A70D-FB4E-8581-B9F15738DFB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Total Roof Top Area (in Sq. m.)</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Installation Cost</t>
+  </si>
+  <si>
+    <t>Roof Area</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -388,20 +394,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E51577D-795A-1443-BB9A-6DEBA71589C2}">
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="89" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+    <col min="2" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -409,10 +415,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -420,10 +429,14 @@
         <v>10</v>
       </c>
       <c r="C2">
+        <f>(A2*B2)/100</f>
+        <v>10</v>
+      </c>
+      <c r="D2">
         <v>47000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>100</v>
       </c>
@@ -431,10 +444,14 @@
         <v>20</v>
       </c>
       <c r="C3">
+        <f>(A3*B3)/100</f>
+        <v>20</v>
+      </c>
+      <c r="D3">
         <v>86000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>100</v>
       </c>
@@ -442,10 +459,14 @@
         <v>25</v>
       </c>
       <c r="C4">
+        <f t="shared" ref="C4:C67" si="0">(A4*B4)/100</f>
+        <v>25</v>
+      </c>
+      <c r="D4">
         <v>107500</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>100</v>
       </c>
@@ -453,10 +474,14 @@
         <v>30</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D5">
         <v>126000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>100</v>
       </c>
@@ -464,10 +489,14 @@
         <v>35</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D6">
         <v>147000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>100</v>
       </c>
@@ -475,10 +504,14 @@
         <v>40</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D7">
         <v>164000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>100</v>
       </c>
@@ -486,10 +519,14 @@
         <v>45</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D8">
         <v>184500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>100</v>
       </c>
@@ -497,10 +534,14 @@
         <v>50</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D9">
         <v>205000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>100</v>
       </c>
@@ -508,10 +549,14 @@
         <v>60</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D10">
         <v>246000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>100</v>
       </c>
@@ -519,10 +564,14 @@
         <v>70</v>
       </c>
       <c r="C11">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D11">
         <v>287000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>100</v>
       </c>
@@ -530,10 +579,14 @@
         <v>90</v>
       </c>
       <c r="C12">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D12">
         <v>369000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>80</v>
       </c>
@@ -541,10 +594,14 @@
         <v>20</v>
       </c>
       <c r="C13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D13">
         <v>75200</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>80</v>
       </c>
@@ -552,10 +609,14 @@
         <v>30</v>
       </c>
       <c r="C14">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D14">
         <v>103200</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>80</v>
       </c>
@@ -563,10 +624,14 @@
         <v>40</v>
       </c>
       <c r="C15">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="D15">
         <v>134400</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>80</v>
       </c>
@@ -574,10 +639,14 @@
         <v>50</v>
       </c>
       <c r="C16">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D16">
         <v>164000</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>80</v>
       </c>
@@ -585,10 +654,14 @@
         <v>60</v>
       </c>
       <c r="C17">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="D17">
         <v>196800</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>80</v>
       </c>
@@ -596,10 +669,14 @@
         <v>70</v>
       </c>
       <c r="C18">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="D18">
         <v>229599.9</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>80</v>
       </c>
@@ -607,10 +684,14 @@
         <v>80</v>
       </c>
       <c r="C19">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="D19">
         <v>262400</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>80</v>
       </c>
@@ -618,10 +699,14 @@
         <v>90</v>
       </c>
       <c r="C20">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D20">
         <v>295200</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>80</v>
       </c>
@@ -629,10 +714,14 @@
         <v>45</v>
       </c>
       <c r="C21">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D21">
         <v>151200</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>80</v>
       </c>
@@ -640,10 +729,14 @@
         <v>65</v>
       </c>
       <c r="C22">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="D22">
         <v>213200</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>80</v>
       </c>
@@ -651,10 +744,14 @@
         <v>75</v>
       </c>
       <c r="C23">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D23">
         <v>246000</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>80</v>
       </c>
@@ -662,10 +759,14 @@
         <v>95</v>
       </c>
       <c r="C24">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="D24">
         <v>311600</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>90</v>
       </c>
@@ -673,10 +774,14 @@
         <v>15</v>
       </c>
       <c r="C25">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="D25">
         <v>65800</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>90</v>
       </c>
@@ -684,10 +789,14 @@
         <v>20</v>
       </c>
       <c r="C26">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D26">
         <v>84600</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>90</v>
       </c>
@@ -695,10 +804,14 @@
         <v>25</v>
       </c>
       <c r="C27">
+        <f t="shared" si="0"/>
+        <v>22.5</v>
+      </c>
+      <c r="D27">
         <v>98899.99</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>90</v>
       </c>
@@ -706,10 +819,14 @@
         <v>30</v>
       </c>
       <c r="C28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="D28">
         <v>116100</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>90</v>
       </c>
@@ -717,10 +834,14 @@
         <v>35</v>
       </c>
       <c r="C29">
+        <f t="shared" si="0"/>
+        <v>31.5</v>
+      </c>
+      <c r="D29">
         <v>130200</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>90</v>
       </c>
@@ -728,10 +849,14 @@
         <v>40</v>
       </c>
       <c r="C30">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="D30">
         <v>151200</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>90</v>
       </c>
@@ -739,10 +864,14 @@
         <v>45</v>
       </c>
       <c r="C31">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+      <c r="D31">
         <v>164000</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>90</v>
       </c>
@@ -750,10 +879,14 @@
         <v>50</v>
       </c>
       <c r="C32">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D32">
         <v>184500</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>90</v>
       </c>
@@ -761,10 +894,14 @@
         <v>55</v>
       </c>
       <c r="C33">
+        <f t="shared" si="0"/>
+        <v>49.5</v>
+      </c>
+      <c r="D33">
         <v>205000</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>90</v>
       </c>
@@ -772,10 +909,14 @@
         <v>60</v>
       </c>
       <c r="C34">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="D34">
         <v>221400</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>90</v>
       </c>
@@ -783,10 +924,14 @@
         <v>65</v>
       </c>
       <c r="C35">
+        <f t="shared" si="0"/>
+        <v>58.5</v>
+      </c>
+      <c r="D35">
         <v>237800</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>90</v>
       </c>
@@ -794,10 +939,14 @@
         <v>70</v>
       </c>
       <c r="C36">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="D36">
         <v>258300</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>90</v>
       </c>
@@ -805,10 +954,14 @@
         <v>75</v>
       </c>
       <c r="C37">
+        <f t="shared" si="0"/>
+        <v>67.5</v>
+      </c>
+      <c r="D37">
         <v>278800</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>90</v>
       </c>
@@ -816,10 +969,14 @@
         <v>80</v>
       </c>
       <c r="C38">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="D38">
         <v>295200</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>90</v>
       </c>
@@ -827,10 +984,14 @@
         <v>85</v>
       </c>
       <c r="C39">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+      <c r="D39">
         <v>315700</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>90</v>
       </c>
@@ -838,10 +999,14 @@
         <v>90</v>
       </c>
       <c r="C40">
+        <f t="shared" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="D40">
         <v>332100</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>90</v>
       </c>
@@ -849,10 +1014,14 @@
         <v>95</v>
       </c>
       <c r="C41">
+        <f t="shared" si="0"/>
+        <v>85.5</v>
+      </c>
+      <c r="D41">
         <v>352600</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>95</v>
       </c>
@@ -860,10 +1029,14 @@
         <v>20</v>
       </c>
       <c r="C42">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="D42">
         <v>89300</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>95</v>
       </c>
@@ -871,10 +1044,14 @@
         <v>30</v>
       </c>
       <c r="C43">
+        <f t="shared" si="0"/>
+        <v>28.5</v>
+      </c>
+      <c r="D43">
         <v>124700</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>95</v>
       </c>
@@ -882,10 +1059,14 @@
         <v>40</v>
       </c>
       <c r="C44">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="D44">
         <v>159600</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>95</v>
       </c>
@@ -893,10 +1074,14 @@
         <v>50</v>
       </c>
       <c r="C45">
+        <f t="shared" si="0"/>
+        <v>47.5</v>
+      </c>
+      <c r="D45">
         <v>196800</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>95</v>
       </c>
@@ -904,10 +1089,14 @@
         <v>60</v>
       </c>
       <c r="C46">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="D46">
         <v>233700</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>95</v>
       </c>
@@ -915,10 +1104,14 @@
         <v>70</v>
       </c>
       <c r="C47">
+        <f t="shared" si="0"/>
+        <v>66.5</v>
+      </c>
+      <c r="D47">
         <v>274700</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>50</v>
       </c>
@@ -926,10 +1119,14 @@
         <v>10</v>
       </c>
       <c r="C48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>50</v>
       </c>
@@ -937,10 +1134,14 @@
         <v>20</v>
       </c>
       <c r="C49">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D49">
         <v>47000</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>50</v>
       </c>
@@ -948,10 +1149,14 @@
         <v>30</v>
       </c>
       <c r="C50">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D50">
         <v>70500</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -959,10 +1164,14 @@
         <v>40</v>
       </c>
       <c r="C51">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D51">
         <v>86000</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -970,10 +1179,14 @@
         <v>50</v>
       </c>
       <c r="C52">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D52">
         <v>107500</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
@@ -981,10 +1194,14 @@
         <v>60</v>
       </c>
       <c r="C53">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D53">
         <v>126000</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>50</v>
       </c>
@@ -992,10 +1209,14 @@
         <v>70</v>
       </c>
       <c r="C54">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D54">
         <v>147000</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>50</v>
       </c>
@@ -1003,10 +1224,14 @@
         <v>80</v>
       </c>
       <c r="C55">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D55">
         <v>164000</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>50</v>
       </c>
@@ -1014,10 +1239,14 @@
         <v>88</v>
       </c>
       <c r="C56">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="D56">
         <v>180400</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>40</v>
       </c>
@@ -1025,10 +1254,14 @@
         <v>15</v>
       </c>
       <c r="C57">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>40</v>
       </c>
@@ -1036,10 +1269,14 @@
         <v>20</v>
       </c>
       <c r="C58">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>40</v>
       </c>
@@ -1047,10 +1284,14 @@
         <v>25</v>
       </c>
       <c r="C59">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D59">
         <v>47000</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>40</v>
       </c>
@@ -1058,10 +1299,14 @@
         <v>30</v>
       </c>
       <c r="C60">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D60">
         <v>56400</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>40</v>
       </c>
@@ -1069,10 +1314,14 @@
         <v>35</v>
       </c>
       <c r="C61">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D61">
         <v>65800</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>40</v>
       </c>
@@ -1080,10 +1329,14 @@
         <v>40</v>
       </c>
       <c r="C62">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D62">
         <v>75200</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>40</v>
       </c>
@@ -1091,10 +1344,14 @@
         <v>45</v>
       </c>
       <c r="C63">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D63">
         <v>84600</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>40</v>
       </c>
@@ -1102,10 +1359,14 @@
         <v>50</v>
       </c>
       <c r="C64">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D64">
         <v>86000</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>40</v>
       </c>
@@ -1113,10 +1374,14 @@
         <v>55</v>
       </c>
       <c r="C65">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="D65">
         <v>94600</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>40</v>
       </c>
@@ -1124,10 +1389,14 @@
         <v>60</v>
       </c>
       <c r="C66">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="D66">
         <v>103200</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>40</v>
       </c>
@@ -1135,10 +1404,14 @@
         <v>70</v>
       </c>
       <c r="C67">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="D67">
         <v>120340</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>40</v>
       </c>
@@ -1146,10 +1419,14 @@
         <v>80</v>
       </c>
       <c r="C68">
+        <f t="shared" ref="C68:C101" si="1">(A68*B68)/100</f>
+        <v>32</v>
+      </c>
+      <c r="D68">
         <v>134400</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>40</v>
       </c>
@@ -1157,10 +1434,14 @@
         <v>85</v>
       </c>
       <c r="C69">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="D69">
         <v>142800</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>40</v>
       </c>
@@ -1168,10 +1449,14 @@
         <v>90</v>
       </c>
       <c r="C70">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D70">
         <v>151200</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>60</v>
       </c>
@@ -1179,10 +1464,14 @@
         <v>33</v>
       </c>
       <c r="C71">
+        <f t="shared" si="1"/>
+        <v>19.8</v>
+      </c>
+      <c r="D71">
         <v>86000</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>60</v>
       </c>
@@ -1190,10 +1479,14 @@
         <v>48</v>
       </c>
       <c r="C72">
+        <f t="shared" si="1"/>
+        <v>28.8</v>
+      </c>
+      <c r="D72">
         <v>124700</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>60</v>
       </c>
@@ -1201,10 +1494,14 @@
         <v>64</v>
       </c>
       <c r="C73">
+        <f t="shared" si="1"/>
+        <v>38.4</v>
+      </c>
+      <c r="D73">
         <v>159600</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>60</v>
       </c>
@@ -1212,10 +1509,14 @@
         <v>76</v>
       </c>
       <c r="C74">
+        <f t="shared" si="1"/>
+        <v>45.6</v>
+      </c>
+      <c r="D74">
         <v>188560</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>72</v>
       </c>
@@ -1223,10 +1524,14 @@
         <v>56</v>
       </c>
       <c r="C75">
+        <f t="shared" si="1"/>
+        <v>40.32</v>
+      </c>
+      <c r="D75">
         <v>164000</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>37</v>
       </c>
@@ -1234,10 +1539,14 @@
         <v>49</v>
       </c>
       <c r="C76">
+        <f t="shared" si="1"/>
+        <v>18.13</v>
+      </c>
+      <c r="D76">
         <v>84600</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>37</v>
       </c>
@@ -1245,10 +1554,14 @@
         <v>39</v>
       </c>
       <c r="C77">
+        <f t="shared" si="1"/>
+        <v>14.43</v>
+      </c>
+      <c r="D77">
         <v>65800</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>37</v>
       </c>
@@ -1256,10 +1569,14 @@
         <v>26</v>
       </c>
       <c r="C78">
+        <f t="shared" si="1"/>
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="D78">
         <v>47000</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>37</v>
       </c>
@@ -1267,10 +1584,14 @@
         <v>20</v>
       </c>
       <c r="C79">
+        <f t="shared" si="1"/>
+        <v>7.4</v>
+      </c>
+      <c r="D79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>37</v>
       </c>
@@ -1278,10 +1599,14 @@
         <v>24</v>
       </c>
       <c r="C80">
+        <f t="shared" si="1"/>
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="D80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>52</v>
       </c>
@@ -1289,10 +1614,14 @@
         <v>24</v>
       </c>
       <c r="C81">
+        <f t="shared" si="1"/>
+        <v>12.48</v>
+      </c>
+      <c r="D81">
         <v>56400</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>52</v>
       </c>
@@ -1300,10 +1629,14 @@
         <v>10</v>
       </c>
       <c r="C82">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="D82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>52</v>
       </c>
@@ -1311,10 +1644,14 @@
         <v>15</v>
       </c>
       <c r="C83">
+        <f t="shared" si="1"/>
+        <v>7.8</v>
+      </c>
+      <c r="D83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>52</v>
       </c>
@@ -1322,10 +1659,14 @@
         <v>18</v>
       </c>
       <c r="C84">
+        <f t="shared" si="1"/>
+        <v>9.36</v>
+      </c>
+      <c r="D84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>52</v>
       </c>
@@ -1333,10 +1674,14 @@
         <v>22</v>
       </c>
       <c r="C85">
+        <f t="shared" si="1"/>
+        <v>11.44</v>
+      </c>
+      <c r="D85">
         <v>51701</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1344,10 +1689,17 @@
         <v>51</v>
       </c>
       <c r="C86">
+        <f t="shared" si="1"/>
+        <v>43.35</v>
+      </c>
+      <c r="D86">
         <v>176300</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1355,10 +1707,14 @@
         <v>57</v>
       </c>
       <c r="C87">
+        <f t="shared" si="1"/>
+        <v>48.45</v>
+      </c>
+      <c r="D87">
         <v>196800</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>85</v>
       </c>
@@ -1366,10 +1722,14 @@
         <v>63</v>
       </c>
       <c r="C88">
+        <f t="shared" si="1"/>
+        <v>53.55</v>
+      </c>
+      <c r="D88">
         <v>221400.03</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>85</v>
       </c>
@@ -1377,10 +1737,14 @@
         <v>69</v>
       </c>
       <c r="C89">
+        <f t="shared" si="1"/>
+        <v>58.65</v>
+      </c>
+      <c r="D89">
         <v>214900</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>85</v>
       </c>
@@ -1388,10 +1752,14 @@
         <v>75</v>
       </c>
       <c r="C90">
+        <f t="shared" si="1"/>
+        <v>63.75</v>
+      </c>
+      <c r="D90">
         <v>262400</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>120</v>
       </c>
@@ -1399,10 +1767,14 @@
         <v>75</v>
       </c>
       <c r="C91">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="D91">
         <v>369000</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>120</v>
       </c>
@@ -1410,10 +1782,14 @@
         <v>65</v>
       </c>
       <c r="C92">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="D92">
         <v>319800</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>120</v>
       </c>
@@ -1421,10 +1797,14 @@
         <v>60</v>
       </c>
       <c r="C93">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="D93">
         <v>295200</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>120</v>
       </c>
@@ -1432,10 +1812,14 @@
         <v>55</v>
       </c>
       <c r="C94">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="D94">
         <v>270600</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>120</v>
       </c>
@@ -1443,10 +1827,14 @@
         <v>50</v>
       </c>
       <c r="C95">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="D95">
         <v>246000</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>120</v>
       </c>
@@ -1454,10 +1842,14 @@
         <v>45</v>
       </c>
       <c r="C96">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="D96">
         <v>221400</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>120</v>
       </c>
@@ -1465,10 +1857,14 @@
         <v>10</v>
       </c>
       <c r="C97">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="D97">
         <v>56400</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>120</v>
       </c>
@@ -1476,10 +1872,14 @@
         <v>20</v>
       </c>
       <c r="C98">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="D98">
         <v>103200</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>500</v>
       </c>
@@ -1487,10 +1887,14 @@
         <v>20</v>
       </c>
       <c r="C99">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="D99">
         <v>410000</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>500</v>
       </c>
@@ -1498,10 +1902,14 @@
         <v>25</v>
       </c>
       <c r="C100">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="D100">
         <v>475000</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>500</v>
       </c>
@@ -1509,6 +1917,10 @@
         <v>35</v>
       </c>
       <c r="C101">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="D101">
         <v>665000</v>
       </c>
     </row>
